--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -379,19 +379,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,13 +403,13 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -850,11 +850,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162770984"/>
-        <c:axId val="115571688"/>
+        <c:axId val="157553712"/>
+        <c:axId val="157554096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162770984"/>
+        <c:axId val="157553712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115571688"/>
+        <c:crossAx val="157554096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115571688"/>
+        <c:axId val="157554096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +991,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162770984"/>
+        <c:crossAx val="157553712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,11 +1281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185271480"/>
-        <c:axId val="185304528"/>
+        <c:axId val="181744280"/>
+        <c:axId val="181744664"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="185271480"/>
+        <c:axId val="181744280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185304528"/>
+        <c:crossAx val="181744664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1336,7 +1336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185304528"/>
+        <c:axId val="181744664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1387,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185271480"/>
+        <c:crossAx val="181744280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,11 +1660,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="185282392"/>
-        <c:axId val="185335976"/>
+        <c:axId val="181585520"/>
+        <c:axId val="156612952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185282392"/>
+        <c:axId val="181585520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1707,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185335976"/>
+        <c:crossAx val="156612952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +1715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185335976"/>
+        <c:axId val="156612952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1766,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185282392"/>
+        <c:crossAx val="181585520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3277,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,100 +3301,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="23"/>
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="23"/>
       <c r="K6" s="22"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3592,10 +3592,10 @@
       <c r="B63" s="13"/>
       <c r="C63" s="26"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="42"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
@@ -3645,32 +3645,35 @@
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="37" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="F80" s="37" t="s">
+      <c r="D78" s="37"/>
+      <c r="F78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="D4:E4"/>
@@ -3681,9 +3684,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$84</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -388,6 +391,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,9 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,6 +677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -850,11 +854,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157553712"/>
-        <c:axId val="157554096"/>
+        <c:axId val="157864544"/>
+        <c:axId val="157864936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157553712"/>
+        <c:axId val="157864544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +901,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157554096"/>
+        <c:crossAx val="157864936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157554096"/>
+        <c:axId val="157864936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,6 +955,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -991,7 +996,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157553712"/>
+        <c:crossAx val="157864544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,6 +1010,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1084,6 +1090,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1281,11 +1288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181744280"/>
-        <c:axId val="181744664"/>
+        <c:axId val="157865720"/>
+        <c:axId val="157866112"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="181744280"/>
+        <c:axId val="157865720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1335,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181744664"/>
+        <c:crossAx val="157866112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1336,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181744664"/>
+        <c:axId val="157866112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1394,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181744280"/>
+        <c:crossAx val="157865720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,6 +1408,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1660,11 +1668,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181585520"/>
-        <c:axId val="156612952"/>
+        <c:axId val="182940360"/>
+        <c:axId val="182940752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181585520"/>
+        <c:axId val="182940360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1715,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156612952"/>
+        <c:crossAx val="182940752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +1723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156612952"/>
+        <c:axId val="182940752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1774,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181585520"/>
+        <c:crossAx val="182940360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3279,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I84" sqref="A1:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,50 +3309,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="23"/>
@@ -3352,16 +3360,16 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="23"/>
@@ -3369,14 +3377,14 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="23"/>
@@ -3384,17 +3392,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3637,44 +3645,34 @@
       <c r="D68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="40">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="39"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="31"/>
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="F78" s="37" t="s">
+      <c r="D78" s="38"/>
+      <c r="F78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -3684,6 +3682,16 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,13 +391,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,12 +410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,11 +851,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157864544"/>
-        <c:axId val="157864936"/>
+        <c:axId val="186225184"/>
+        <c:axId val="186225568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157864544"/>
+        <c:axId val="186225184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +898,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157864936"/>
+        <c:crossAx val="186225568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157864936"/>
+        <c:axId val="186225568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +993,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157864544"/>
+        <c:crossAx val="186225184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,11 +1285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157865720"/>
-        <c:axId val="157866112"/>
+        <c:axId val="186300608"/>
+        <c:axId val="186300992"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="157865720"/>
+        <c:axId val="186300608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1332,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157866112"/>
+        <c:crossAx val="186300992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1343,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157866112"/>
+        <c:axId val="186300992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1391,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157865720"/>
+        <c:crossAx val="186300608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1609,7 +1605,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1668,11 +1663,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182940360"/>
-        <c:axId val="182940752"/>
+        <c:axId val="186336360"/>
+        <c:axId val="186440480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182940360"/>
+        <c:axId val="186336360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1710,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182940752"/>
+        <c:crossAx val="186440480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1723,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182940752"/>
+        <c:axId val="186440480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1769,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182940360"/>
+        <c:crossAx val="186336360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3287,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I84" sqref="A1:I84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,100 +3304,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="22"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="23"/>
       <c r="K6" s="22"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -3645,53 +3642,53 @@
       <c r="D68" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="41">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="40"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="31"/>
       <c r="H68" s="21"/>
       <c r="I68" s="4"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="F78" s="38" t="s">
+      <c r="D78" s="39"/>
+      <c r="F78" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="F77:H77"/>
     <mergeCell ref="F78:H78"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Firma Colaborador</t>
+  </si>
+  <si>
+    <t>Detalle</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,16 +308,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,15 +332,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -382,13 +382,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,11 +415,20 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -428,7 +440,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -458,7 +470,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -490,7 +502,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -528,7 +540,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -537,14 +549,47 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -569,6 +614,19 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -851,11 +909,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="186225184"/>
-        <c:axId val="186225568"/>
+        <c:axId val="212925416"/>
+        <c:axId val="212925808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186225184"/>
+        <c:axId val="212925416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +956,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186225568"/>
+        <c:crossAx val="212925808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186225568"/>
+        <c:axId val="212925808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1051,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186225184"/>
+        <c:crossAx val="212925416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,11 +1343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186300608"/>
-        <c:axId val="186300992"/>
+        <c:axId val="212926984"/>
+        <c:axId val="212927376"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="186300608"/>
+        <c:axId val="212926984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1390,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186300992"/>
+        <c:crossAx val="212927376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186300992"/>
+        <c:axId val="212927376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1449,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186300608"/>
+        <c:crossAx val="212926984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,6 +1575,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1566,66 +1625,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$G$49:$H$49</c:f>
+              <c:f>Hoja1!$D$50:$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1639,15 +1641,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$50:$H$50</c:f>
+              <c:f>Hoja1!$D$51:$E$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.9764999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="186336360"/>
-        <c:axId val="186440480"/>
+        <c:axId val="212925024"/>
+        <c:axId val="212924632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186336360"/>
+        <c:axId val="212925024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1712,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186440480"/>
+        <c:crossAx val="212924632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1718,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186440480"/>
+        <c:axId val="212924632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1740,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1769,7 +1771,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186336360"/>
+        <c:crossAx val="212925024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3002,12 +3004,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H63" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H63" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B53:H63"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="5"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="4"/>
-    <tableColumn id="3" name="Método seleccionado"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
     <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
     <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
     <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
@@ -3282,15 +3284,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
@@ -3304,372 +3306,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="37" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17">
+      <c r="D50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13">
         <v>2</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="13">
         <v>1</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="D51" s="39">
+        <v>2</v>
+      </c>
+      <c r="E51" s="39">
+        <v>1.9764999999999999</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="2">
+      <c r="C54" s="16"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="28">
         <v>2</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="28">
         <v>2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="2">
+      <c r="C55" s="16"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="28">
         <v>2</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="28">
         <v>2</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="9">
+      <c r="C56" s="16"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="30">
         <v>3</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="30">
         <v>3</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
+      <c r="B57" s="16"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28">
         <v>4</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2">
+      <c r="B58" s="16"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28">
         <v>3</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
+      <c r="B59" s="16"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28">
         <v>2</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28">
         <v>2</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9">
+      <c r="B61" s="10"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30">
         <v>3</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="38">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="4"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="F78" s="39" t="s">
+      <c r="D78" s="36"/>
+      <c r="F78" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E4:F4"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -98,7 +98,7 @@
     <t>Firma Colaborador</t>
   </si>
   <si>
-    <t>Detalle</t>
+    <t>Detalle AC</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +315,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,15 +425,26 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +775,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$53</c:f>
+              <c:f>Hoja1!$G$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -775,7 +796,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$63</c:f>
+              <c:f>Hoja1!$B$57:$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -792,7 +813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$54:$G$63</c:f>
+              <c:f>Hoja1!$G$57:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -829,7 +850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$53</c:f>
+              <c:f>Hoja1!$H$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -850,7 +871,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$63</c:f>
+              <c:f>Hoja1!$B$57:$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -867,7 +888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$54:$H$63</c:f>
+              <c:f>Hoja1!$H$57:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -909,11 +930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="212925416"/>
-        <c:axId val="212925808"/>
+        <c:axId val="198538920"/>
+        <c:axId val="198539312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212925416"/>
+        <c:axId val="198538920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +977,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212925808"/>
+        <c:crossAx val="198539312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212925808"/>
+        <c:axId val="198539312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1072,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212925416"/>
+        <c:crossAx val="198538920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1186,7 +1207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$53</c:f>
+              <c:f>Hoja1!$G$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1209,7 +1230,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$63</c:f>
+              <c:f>Hoja1!$B$57:$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1226,7 +1247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$54:$G$63</c:f>
+              <c:f>Hoja1!$G$57:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1263,7 +1284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$53</c:f>
+              <c:f>Hoja1!$H$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,7 +1307,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$54:$B$63</c:f>
+              <c:f>Hoja1!$B$57:$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1303,7 +1324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$54:$H$63</c:f>
+              <c:f>Hoja1!$H$57:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1343,11 +1364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212926984"/>
-        <c:axId val="212927376"/>
+        <c:axId val="198540096"/>
+        <c:axId val="198540488"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="212926984"/>
+        <c:axId val="198540096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1411,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212927376"/>
+        <c:crossAx val="198540488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1398,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212927376"/>
+        <c:axId val="198540488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1470,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212926984"/>
+        <c:crossAx val="198540096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,11 +1686,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="212925024"/>
-        <c:axId val="212924632"/>
+        <c:axId val="198541272"/>
+        <c:axId val="198541664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212925024"/>
+        <c:axId val="198541272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1733,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212924632"/>
+        <c:crossAx val="198541664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1720,7 +1741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212924632"/>
+        <c:axId val="198541664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1792,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212925024"/>
+        <c:crossAx val="198541272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3004,8 +3025,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B53:H63" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B53:H63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H66" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B56:H66"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
     <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
@@ -3282,9 +3303,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
@@ -3306,17 +3327,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3407,29 +3428,27 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="42" t="s">
-        <v>23</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="45"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="44"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="44"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="44"/>
     </row>
-    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="46"/>
+      <c r="C39" s="44"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="B40" s="44"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D49" s="15"/>
@@ -3460,10 +3479,10 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="39">
+      <c r="D51" s="32">
         <v>2</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="32">
         <v>1.9764999999999999</v>
       </c>
       <c r="F51" s="13"/>
@@ -3472,238 +3491,279 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="C53" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="28">
-        <v>2</v>
-      </c>
-      <c r="G54" s="28">
-        <v>2</v>
-      </c>
-      <c r="H54" s="29">
-        <v>3</v>
-      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="28">
-        <v>2</v>
-      </c>
-      <c r="G55" s="28">
-        <v>2</v>
-      </c>
-      <c r="H55" s="29">
-        <v>3</v>
-      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="30">
-        <v>3</v>
-      </c>
-      <c r="G56" s="30">
-        <v>3</v>
-      </c>
-      <c r="H56" s="31">
-        <v>1</v>
+      <c r="B56" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="28"/>
+      <c r="B57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="28">
+        <v>2</v>
+      </c>
       <c r="G57" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="28"/>
+      <c r="B58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="28">
+        <v>2</v>
+      </c>
       <c r="G58" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="16"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28">
-        <v>2</v>
-      </c>
-      <c r="H59" s="29">
+      <c r="F59" s="30">
         <v>3</v>
+      </c>
+      <c r="G59" s="30">
+        <v>3</v>
+      </c>
+      <c r="H59" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="20"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="20"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30">
+      <c r="F61" s="28"/>
+      <c r="G61" s="28">
         <v>3</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28">
+        <v>2</v>
+      </c>
+      <c r="H62" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28">
+        <v>2</v>
+      </c>
+      <c r="H63" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30">
+        <v>3</v>
+      </c>
+      <c r="H64" s="31">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="26" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D71" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E71" s="38">
         <v>2.356789</v>
       </c>
-      <c r="F68" s="38"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="3"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="3"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="36" t="s">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="F78" s="36" t="s">
+      <c r="D81" s="36"/>
+      <c r="F81" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E71:F71"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B6:C6"/>
@@ -3713,17 +3773,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,13 +381,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,12 +400,11 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,12 +417,6 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,16 +426,63 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -656,45 +689,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -753,7 +747,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -930,11 +923,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198538920"/>
-        <c:axId val="198539312"/>
+        <c:axId val="162091784"/>
+        <c:axId val="162092176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198538920"/>
+        <c:axId val="162091784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +970,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198539312"/>
+        <c:crossAx val="162092176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198539312"/>
+        <c:axId val="162092176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1072,7 +1064,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198538920"/>
+        <c:crossAx val="162091784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,7 +1078,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1166,7 +1157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1364,11 +1354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198540096"/>
-        <c:axId val="198540488"/>
+        <c:axId val="162092960"/>
+        <c:axId val="162093352"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="198540096"/>
+        <c:axId val="162092960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1401,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198540488"/>
+        <c:crossAx val="162093352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198540488"/>
+        <c:axId val="162093352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1460,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198540096"/>
+        <c:crossAx val="162092960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,7 +1474,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1596,7 +1585,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1686,11 +1674,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198541272"/>
-        <c:axId val="198541664"/>
+        <c:axId val="162094136"/>
+        <c:axId val="162094528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198541272"/>
+        <c:axId val="162094136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1721,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198541664"/>
+        <c:crossAx val="162094528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1741,7 +1729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198541664"/>
+        <c:axId val="162094528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1780,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198541272"/>
+        <c:crossAx val="162094136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3025,16 +3013,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H66" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H66" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B56:H66"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
-    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
-    <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="5"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="4"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="3"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="2"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3305,15 +3293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
@@ -3327,128 +3314,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="46"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="46"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D49" s="15"/>
@@ -3463,10 +3450,10 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="13"/>
@@ -3479,10 +3466,10 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="32">
+      <c r="D51" s="29">
         <v>2</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="29">
         <v>1.9764999999999999</v>
       </c>
       <c r="F51" s="13"/>
@@ -3491,30 +3478,30 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="42"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
@@ -3527,25 +3514,25 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3556,13 +3543,13 @@
       <c r="C57" s="16"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="28">
+      <c r="F57" s="25">
         <v>2</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="25">
         <v>2</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3573,13 +3560,13 @@
       <c r="C58" s="16"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="28">
+      <c r="F58" s="25">
         <v>2</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="25">
         <v>2</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3590,13 +3577,13 @@
       <c r="C59" s="16"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="30">
+      <c r="F59" s="27">
         <v>3</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="27">
         <v>3</v>
       </c>
-      <c r="H59" s="31">
+      <c r="H59" s="28">
         <v>1</v>
       </c>
     </row>
@@ -3605,11 +3592,11 @@
       <c r="C60" s="20"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28">
+      <c r="F60" s="25"/>
+      <c r="G60" s="25">
         <v>4</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="26">
         <v>2</v>
       </c>
     </row>
@@ -3618,11 +3605,11 @@
       <c r="C61" s="20"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28">
+      <c r="F61" s="25"/>
+      <c r="G61" s="25">
         <v>3</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3631,11 +3618,11 @@
       <c r="C62" s="20"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28">
+      <c r="F62" s="25"/>
+      <c r="G62" s="25">
         <v>2</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="26">
         <v>3</v>
       </c>
     </row>
@@ -3644,11 +3631,11 @@
       <c r="C63" s="20"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28">
+      <c r="F63" s="25"/>
+      <c r="G63" s="25">
         <v>2</v>
       </c>
-      <c r="H63" s="29">
+      <c r="H63" s="26">
         <v>2</v>
       </c>
     </row>
@@ -3657,11 +3644,11 @@
       <c r="C64" s="20"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27">
         <v>3</v>
       </c>
-      <c r="H64" s="31">
+      <c r="H64" s="28">
         <v>3</v>
       </c>
     </row>
@@ -3670,18 +3657,18 @@
       <c r="C65" s="21"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="22"/>
       <c r="D66" s="9"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
@@ -3720,50 +3707,37 @@
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="36">
         <v>2.356789</v>
       </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="17"/>
       <c r="I71" s="3"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="F81" s="36" t="s">
+      <c r="D81" s="34"/>
+      <c r="F81" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E71:F71"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="B6:C6"/>
@@ -3772,7 +3746,20 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G54"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
+++ b/protected/modules/excel/templates/EvaluacionPorCompetenciasTemplate_AC2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Modelo de Gestión por Competencias</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Promedio ponderado</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
     <t>Método seleccionado</t>
   </si>
   <si>
@@ -100,12 +94,18 @@
   <si>
     <t>Detalle AC</t>
   </si>
+  <si>
+    <t>Evaluación AC</t>
+  </si>
+  <si>
+    <t>Evaluación mediante Entrevista Conductual Estructurada y Assessment Center  con proporciones 40% y 60% respectivamente.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,14 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,11 +328,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,17 +409,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -426,63 +451,23 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -689,6 +674,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -747,6 +766,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -768,7 +788,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$56</c:f>
+              <c:f>Hoja1!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -789,7 +809,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$66</c:f>
+              <c:f>Hoja1!$B$39:$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -806,7 +826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$57:$G$66</c:f>
+              <c:f>Hoja1!$G$39:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -843,7 +863,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$56</c:f>
+              <c:f>Hoja1!$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -864,7 +884,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$66</c:f>
+              <c:f>Hoja1!$B$39:$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -881,7 +901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$57:$H$66</c:f>
+              <c:f>Hoja1!$H$39:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -923,11 +943,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162091784"/>
-        <c:axId val="162092176"/>
+        <c:axId val="229014968"/>
+        <c:axId val="229015360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162091784"/>
+        <c:axId val="229014968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +990,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162092176"/>
+        <c:crossAx val="229015360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162092176"/>
+        <c:axId val="229015360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,6 +1044,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1064,7 +1085,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162091784"/>
+        <c:crossAx val="229014968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,6 +1099,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1157,6 +1179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1197,7 +1220,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$56</c:f>
+              <c:f>Hoja1!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1220,7 +1243,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$66</c:f>
+              <c:f>Hoja1!$B$39:$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1237,7 +1260,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$57:$G$66</c:f>
+              <c:f>Hoja1!$G$39:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1274,7 +1297,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$56</c:f>
+              <c:f>Hoja1!$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1297,7 +1320,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$57:$B$66</c:f>
+              <c:f>Hoja1!$B$39:$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1314,7 +1337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$57:$H$66</c:f>
+              <c:f>Hoja1!$H$39:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1354,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162092960"/>
-        <c:axId val="162093352"/>
+        <c:axId val="229016144"/>
+        <c:axId val="229016536"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="162092960"/>
+        <c:axId val="229016144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1424,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162093352"/>
+        <c:crossAx val="229016536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162093352"/>
+        <c:axId val="229016536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1483,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162092960"/>
+        <c:crossAx val="229016144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,6 +1497,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1540,336 +1564,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CR" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Aporte de AC (60%) y ECE (40%) a la calificación</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CR" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ECE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$51:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9764999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="162094136"/>
-        <c:axId val="162094528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="162094136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162094528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="162094528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="162094136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2414,522 +2109,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2953,13 +2145,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2979,50 +2171,20 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514347</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B56:H66" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B56:H66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B38:H48" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B38:H48"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="7"/>
-    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="6"/>
-    <tableColumn id="3" name="Método seleccionado" dataDxfId="5"/>
-    <tableColumn id="8" name="Calificación VE" dataDxfId="4"/>
-    <tableColumn id="4" name="Valor Relativo" dataDxfId="3"/>
-    <tableColumn id="5" name="Candidato Ideal" dataDxfId="2"/>
-    <tableColumn id="6" name="Calificación" dataDxfId="1"/>
+    <tableColumn id="1" name="Méritos y Habilidades" dataDxfId="6"/>
+    <tableColumn id="2" name="Variable equivalente (VE)" dataDxfId="5"/>
+    <tableColumn id="3" name="Método seleccionado" dataDxfId="4"/>
+    <tableColumn id="8" name="Calificación VE" dataDxfId="3"/>
+    <tableColumn id="4" name="Valor Relativo" dataDxfId="2"/>
+    <tableColumn id="5" name="Candidato Ideal" dataDxfId="1"/>
+    <tableColumn id="6" name="Calificación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3291,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,452 +2476,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="42" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="42" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
-      <c r="C36" s="31"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
-      <c r="C37" s="31"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
-      <c r="C38" s="31"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="C39" s="31"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="E38" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13">
+      <c r="F38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="25">
         <v>2</v>
       </c>
-      <c r="H50" s="13">
+      <c r="G39" s="25">
+        <v>2</v>
+      </c>
+      <c r="H39" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="25">
+        <v>2</v>
+      </c>
+      <c r="G40" s="25">
+        <v>2</v>
+      </c>
+      <c r="H40" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="27">
+        <v>3</v>
+      </c>
+      <c r="G41" s="27">
+        <v>3</v>
+      </c>
+      <c r="H41" s="28">
         <v>1</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="29">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25">
+        <v>4</v>
+      </c>
+      <c r="H42" s="26">
         <v>2</v>
       </c>
-      <c r="E51" s="29">
-        <v>1.9764999999999999</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25">
+        <v>3</v>
+      </c>
+      <c r="H43" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
+      <c r="H44" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25">
+        <v>2</v>
+      </c>
+      <c r="H45" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27">
+        <v>3</v>
+      </c>
+      <c r="H46" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="39">
+        <v>2.356789</v>
+      </c>
       <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="44" t="s">
+      <c r="G53" s="24"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="F63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="25">
-        <v>2</v>
-      </c>
-      <c r="G57" s="25">
-        <v>2</v>
-      </c>
-      <c r="H57" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="25">
-        <v>2</v>
-      </c>
-      <c r="G58" s="25">
-        <v>2</v>
-      </c>
-      <c r="H58" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="27">
-        <v>3</v>
-      </c>
-      <c r="G59" s="27">
-        <v>3</v>
-      </c>
-      <c r="H59" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25">
-        <v>4</v>
-      </c>
-      <c r="H60" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25">
-        <v>3</v>
-      </c>
-      <c r="H61" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25">
-        <v>2</v>
-      </c>
-      <c r="H62" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25">
-        <v>2</v>
-      </c>
-      <c r="H63" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27">
-        <v>3</v>
-      </c>
-      <c r="H64" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="36">
-        <v>2.356789</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="34"/>
-      <c r="F81" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A8:I8"/>
+  <mergeCells count="23">
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G54"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
